--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9EAE14-CCBB-4C95-8DD1-9335FFCE5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74053897-1FF5-4DEC-B969-4217BBBF8165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="3450" windowWidth="20190" windowHeight="10530" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="STSheet" sheetId="1" r:id="rId1"/>
@@ -46,26 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 1번 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 2번 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 3번 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 4번 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지 5번 입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ST_branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +67,33 @@
   </si>
   <si>
     <t>DM - 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 번의 우연한 배신, 몇 번의 필연적인 구제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러짓 깃발은 가치가 전혀 없지만, 어떤
+사람들의 눈엔 분쟁을 뜻하는 이 천 조각이 한
+번도 세워진 적이 없는 것처럼 보일 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각을 멈추고, 뇌를 속이고, 칼과 지팡이를 들어라
+병사는 전진해야만 하니.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살아있는 전설의 영웅이 당신과 어깨를 나란히 하고 작전에 돌입한다면
+당신은 감격스러워 할 텐가? 
+아니면, 서사시라면 필연적으로 따라오는 비극적인 결과를 걱정할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 부분적인 전장의 이야기는 수도 없이 많이 복제되어 퍼져나가지만
+만약 그것들을 사람들이 볼 수 없는 곳에 방치한다면
+결국 모든 병사에게 기얼될 순 없을 것이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +158,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,19 +478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70116711-78A4-4239-AC92-FDDB4003491D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.25" style="1" customWidth="1"/>
     <col min="4" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -489,15 +501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -505,43 +517,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74053897-1FF5-4DEC-B969-4217BBBF8165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A4A90-18A5-48F9-B1E6-D66D84222935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="15255" yWindow="3270" windowWidth="20190" windowHeight="10530" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
-    <sheet name="STSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
+    <sheet name="STSheet" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ST_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +95,34 @@
     <t>모든 부분적인 전장의 이야기는 수도 없이 많이 복제되어 퍼져나가지만
 만약 그것들을 사람들이 볼 수 없는 곳에 방치한다면
 결국 모든 병사에게 기얼될 순 없을 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 게임팁 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 게임팁 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 게임팁 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 게임팁 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청난 게임팁 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,12 +504,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70116711-78A4-4239-AC92-FDDB4003491D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A4A90-18A5-48F9-B1E6-D66D84222935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F5F4DE-243E-4BD5-AAE3-94524B08E317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="3270" windowWidth="20190" windowHeight="10530" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="15255" yWindow="3315" windowWidth="20190" windowHeight="11505" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -106,24 +106,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엄청난 게임팁 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 게임팁 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 게임팁 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 게임팁 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청난 게임팁 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>오리지늄이 발견된 후 인류는 오리지늄을 이용해 물질의 고유 성질을 바꿀 수 있는 기술을 발견했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재앙'이라 불리는 원인불명의 자연재해가 대지를 휩쓸고 지나간 곳엔 막대한 양의 광석이 남겨져 있었고, 인류는 이 수수께끼의 광석을 '오리지늄'이라 불렀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족 구분없이 감염자들로만 이뤄진 단체로, 극단적으로 폐쇄적인 성향을 띄고 있다.</t>
+  </si>
+  <si>
+    <t>로도스 아일랜드 제약회사. 대외적으론 제약회사라는 타이틀에 걸맞게 각 국가, 단체 및 개인 감염자용 치료 방안 연구를 진행 중</t>
+  </si>
+  <si>
+    <t>사망 시 광석병이 확산된다는 점과 위험한 잠재능력 때문에 각국에선 일찍이 감염자들을 격리하거나 추방하여 왔지만, 그들에게 어떻게 살아가야 할지에 대해 알려주는 이는 아무도 없었다.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +145,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF010101"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,6 +195,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,12 +518,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="174.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +548,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -543,7 +556,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -551,7 +564,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -559,7 +572,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F5F4DE-243E-4BD5-AAE3-94524B08E317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5F7F7-65F3-4256-8AA9-B3D03540FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="3315" windowWidth="20190" windowHeight="11505" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="17385" yWindow="1830" windowWidth="20190" windowHeight="11505" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -518,9 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD5F7F7-65F3-4256-8AA9-B3D03540FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3AF377-BCC8-4F75-ACE1-D0941BC5A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17385" yWindow="1830" windowWidth="20190" windowHeight="11505" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="15510" yWindow="2610" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
     <sheet name="STSheet" sheetId="1" r:id="rId2"/>
+    <sheet name="DialogSheet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>ST_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +122,59 @@
   </si>
   <si>
     <t>사망 시 광석병이 확산된다는 점과 위험한 잠재능력 때문에 각국에선 일찍이 감염자들을 격리하거나 추방하여 왔지만, 그들에게 어떻게 살아가야 할지에 대해 알려주는 이는 아무도 없었다.</t>
+  </si>
+  <si>
+    <t>DIA_branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA_dialog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA_cutscene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 컷씬1 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음….오늘 회의할 안건은….우리 프로젝트 레벨 디자인이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 의견 하나씩 내보도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…확실히 이건 생각해볼만하군 알겠다
+모두 수고했고 쉬러가도록 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금부터 회의를 시작하겠다
+모두 주목!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA_End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔드라인</t>
+  </si>
+  <si>
+    <t>엔드라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +255,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4ECD9-029C-4F43-A84B-E714F8F20A49}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -664,4 +724,117 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3AF377-BCC8-4F75-ACE1-D0941BC5A028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DC3D9-EBFA-454B-A70E-CAB3C39753C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15510" yWindow="2610" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="14535" yWindow="2355" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -730,9 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1DC3D9-EBFA-454B-A70E-CAB3C39753C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E682C-411B-4867-9439-875062496BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="2355" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="14415" yWindow="2940" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>ST_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>엔드라인</t>
-  </si>
-  <si>
-    <t>엔드라인</t>
+    <t>Left_Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid_Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIA_BGI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGI_city</t>
+  </si>
+  <si>
+    <t>BGI_ground</t>
+  </si>
+  <si>
+    <t>BGI_ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGI_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=======</t>
+  </si>
+  <si>
+    <t>=====================================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 엄청난 양의 방대한 텍스트 덩어리!!!!!
+이소드의 채팅공격을 받아랏!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무일도 없었어….아마도 말이지..켘켘켘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…..흥미로운 이야기군요….그래서 어쩌라는거요?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하학 전쟁 좋아 전쟁 최고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.....다들 진정하시고 저희 돈까스나 같이 먹으면서 화해해요!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,10 +300,83 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -231,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -259,8 +415,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,106 +914,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="D2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="C6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="C9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RunGame_EX.xlsx
+++ b/Assets/Excel/RunGame_EX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\Project_Run-Game\Project_Run-Game-Production\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4E682C-411B-4867-9439-875062496BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C6809-A594-4805-AF44-AC56F83E128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="2940" windowWidth="22500" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
+    <workbookView xWindow="4395" yWindow="2670" windowWidth="31440" windowHeight="11295" activeTab="2" xr2:uid="{01D65BF2-BF7C-4516-85D5-AD8621709667}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSheet" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>ST_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,18 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>=======</t>
   </si>
   <si>
@@ -252,11 +240,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하하학 전쟁 좋아 전쟁 최고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음.....다들 진정하시고 저희 돈까스나 같이 먹으면서 화해해요!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left_Blackout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid_Blackout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right_Blackout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸우자는 건가요? 좋지!
+와라!!! 난 두렵지 않다 하하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGI_Blackout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,16 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,37 +925,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C66F347-528C-4286-9DA8-D4A26D275154}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="10" max="10" width="13.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -962,38 +977,56 @@
       <c r="I1" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="J1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1003,156 +1036,159 @@
         <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>42</v>
+      <c r="G6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>44</v>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>50</v>
+      <c r="C9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>37</v>
@@ -1161,82 +1197,85 @@
         <v>34</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>2</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>42</v>
+      <c r="G12" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
